--- a/data/trans_bre/P21D_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_3_R-Edad-trans_bre.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.39317069813441</v>
+        <v>1.276987028988321</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.2354672592619288</v>
+        <v>-0.2354672592619289</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-1</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.179212393420678</v>
+        <v>-1.430952860173282</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.110010108854132</v>
+        <v>1.542209625533041</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.547918298762416</v>
+        <v>1.515677891666724</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.09503711883541709</v>
+        <v>-0.06210066066017585</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
     </row>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2429530848994778</v>
+        <v>0.2448709738531873</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
